--- a/src/main/resources/deploy/template/mall/contractorder.xlsx
+++ b/src/main/resources/deploy/template/mall/contractorder.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>IDX_NO</t>
   </si>
@@ -312,6 +312,10 @@
   </si>
   <si>
     <t>${item.custName == '' ?  '기타' : item.custName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.remarkM}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1121,7 +1125,9 @@
       <c r="J3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="L3" s="4" t="s">
         <v>58</v>
       </c>
@@ -1150,8 +1156,12 @@
       <c r="W3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="X3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="Z3" s="4" t="s">
         <v>64</v>
       </c>

--- a/src/main/resources/deploy/template/mall/contractorder.xlsx
+++ b/src/main/resources/deploy/template/mall/contractorder.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>IDX_NO</t>
   </si>
@@ -261,10 +261,6 @@
   </si>
   <si>
     <t>${item.dvPlaceName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.itemName}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -923,7 +919,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1108,13 +1104,13 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
@@ -1126,47 +1122,45 @@
         <v>57</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="X3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="Z3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>

--- a/src/main/resources/deploy/template/mall/contractorder.xlsx
+++ b/src/main/resources/deploy/template/mall/contractorder.xlsx
@@ -919,7 +919,7 @@
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/deploy/template/mall/contractorder.xlsx
+++ b/src/main/resources/deploy/template/mall/contractorder.xlsx
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>IDX_NO</t>
   </si>
@@ -292,27 +292,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${item.isInclusedVat == '과세' ? '1' : ''}</t>
-  </si>
-  <si>
-    <t>${item.price}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[S3 * T3 / 1.1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[S3 * T3 - V3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.custName == '' ?  '기타' : item.custName}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${item.remarkM}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.curAmt / item.qty}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.smVatKindName == '과세' ? '1' : ''}</t>
   </si>
 </sst>
 </file>
@@ -918,11 +910,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="31.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1110,7 +1105,7 @@
         <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
@@ -1122,7 +1117,7 @@
         <v>57</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
@@ -1136,26 +1131,18 @@
         <v>59</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
       <c r="Z3" s="4" t="s">
         <v>63</v>
       </c>
